--- a/Code/Results/Cases/Case_2_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.94930642248362</v>
+        <v>11.79008979645891</v>
       </c>
       <c r="C2">
-        <v>15.54784911771554</v>
+        <v>9.146297098557223</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.69959207243233</v>
+        <v>11.64193756024586</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>29.64530342730939</v>
+        <v>25.80280529302172</v>
       </c>
       <c r="H2">
-        <v>9.127244481297177</v>
+        <v>12.96756632760109</v>
       </c>
       <c r="I2">
-        <v>12.4604122813927</v>
+        <v>17.99397222990934</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.06250384896132</v>
+        <v>14.40239269569655</v>
       </c>
       <c r="N2">
-        <v>10.74996063875644</v>
+        <v>16.40324474656374</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.62216409728587</v>
+        <v>11.20128780790012</v>
       </c>
       <c r="C3">
-        <v>14.52802848155532</v>
+        <v>8.617083079331648</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.0659475240519</v>
+        <v>11.53414368500319</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>27.9931317509683</v>
+        <v>25.47253618121673</v>
       </c>
       <c r="H3">
-        <v>8.976321825278745</v>
+        <v>12.99458165896553</v>
       </c>
       <c r="I3">
-        <v>12.39266532792086</v>
+        <v>18.06806836529239</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.85671297578501</v>
+        <v>14.1179314706999</v>
       </c>
       <c r="N3">
-        <v>10.98419496827721</v>
+        <v>16.47010806177864</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.76205240595923</v>
+        <v>10.82527740164572</v>
       </c>
       <c r="C4">
-        <v>13.86900871448726</v>
+        <v>8.273478209271925</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.67215782193901</v>
+        <v>11.47156272440864</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>26.97802191345549</v>
+        <v>25.28127003946212</v>
       </c>
       <c r="H4">
-        <v>8.893867702485887</v>
+        <v>13.01474348701838</v>
       </c>
       <c r="I4">
-        <v>12.37058810613704</v>
+        <v>18.11916865240467</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.07797697089266</v>
+        <v>13.94422934883281</v>
       </c>
       <c r="N4">
-        <v>11.13074518448289</v>
+        <v>16.51308396530331</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.40009571379155</v>
+        <v>10.66860470937609</v>
       </c>
       <c r="C5">
-        <v>13.59213800826426</v>
+        <v>8.128799319758761</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.51066178404024</v>
+        <v>11.44699204141228</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>26.56469818761519</v>
+        <v>25.20633087119935</v>
       </c>
       <c r="H5">
-        <v>8.862758772169192</v>
+        <v>13.02385443183121</v>
       </c>
       <c r="I5">
-        <v>12.36622840688331</v>
+        <v>18.14139313045144</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.75090123413526</v>
+        <v>13.87378864532545</v>
       </c>
       <c r="N5">
-        <v>11.19118669261111</v>
+        <v>16.53108177267938</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.33929918399572</v>
+        <v>10.64238761962339</v>
       </c>
       <c r="C6">
-        <v>13.54566027618473</v>
+        <v>8.104495491987191</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.48378925784827</v>
+        <v>11.44296905199232</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>26.49610353781474</v>
+        <v>25.1940716026063</v>
       </c>
       <c r="H6">
-        <v>8.85774127967801</v>
+        <v>13.02542122196905</v>
       </c>
       <c r="I6">
-        <v>12.36577649709724</v>
+        <v>18.14516782856428</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.69600039516575</v>
+        <v>13.86211585819523</v>
       </c>
       <c r="N6">
-        <v>11.20126749715039</v>
+        <v>16.53409962101097</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.75721740545946</v>
+        <v>10.8231781256704</v>
       </c>
       <c r="C7">
-        <v>13.86530846977672</v>
+        <v>8.271545819972971</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.66998372716502</v>
+        <v>11.47122755222083</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>26.97244555562276</v>
+        <v>25.28024708951274</v>
       </c>
       <c r="H7">
-        <v>8.893438173673411</v>
+        <v>13.014862742738</v>
       </c>
       <c r="I7">
-        <v>12.37051089778405</v>
+        <v>18.11946271983773</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.0736054304894</v>
+        <v>13.94327782935429</v>
       </c>
       <c r="N7">
-        <v>11.13155735527731</v>
+        <v>16.51332472510162</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.50104750262843</v>
+        <v>11.59018521961684</v>
       </c>
       <c r="C8">
-        <v>15.20299469724339</v>
+        <v>8.967716882844689</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.48218048843107</v>
+        <v>11.60403774370236</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>29.07604874735274</v>
+        <v>25.68660404705504</v>
       </c>
       <c r="H8">
-        <v>9.07304294186436</v>
+        <v>12.97613707579701</v>
       </c>
       <c r="I8">
-        <v>12.43284065677826</v>
+        <v>18.01835207780978</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>17.65465697710722</v>
+        <v>14.30417319109519</v>
       </c>
       <c r="N8">
-        <v>10.83017964843465</v>
+        <v>16.42590135536888</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.56575034635221</v>
+        <v>12.97224001865727</v>
       </c>
       <c r="C9">
-        <v>17.56874669778803</v>
+        <v>10.18367893268525</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.03211392629551</v>
+        <v>11.891876952679</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>33.1788497630544</v>
+        <v>26.56977634533969</v>
       </c>
       <c r="H9">
-        <v>9.509351884688657</v>
+        <v>12.92872101361982</v>
       </c>
       <c r="I9">
-        <v>12.72164361459944</v>
+        <v>17.86492929360339</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>20.45509912678318</v>
+        <v>15.01503397610182</v>
       </c>
       <c r="N9">
-        <v>10.25916573958108</v>
+        <v>16.26963806331387</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.60727821352398</v>
+        <v>13.90551102086756</v>
       </c>
       <c r="C10">
-        <v>19.15520767770485</v>
+        <v>10.98509641590152</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>14.22156999371197</v>
+        <v>12.1183151996688</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>36.19822733709977</v>
+        <v>27.26394515072758</v>
       </c>
       <c r="H10">
-        <v>9.885011287623991</v>
+        <v>12.91147990922998</v>
       </c>
       <c r="I10">
-        <v>13.05055288850149</v>
+        <v>17.78006459007004</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.33688141443513</v>
+        <v>15.53343875166049</v>
       </c>
       <c r="N10">
-        <v>9.849349348257793</v>
+        <v>16.16397857394625</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.49195663653848</v>
+        <v>14.31105181644751</v>
       </c>
       <c r="C11">
-        <v>19.84539360106542</v>
+        <v>11.32962487861414</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.80285034609448</v>
+        <v>12.22417670218902</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>37.60724155519555</v>
+        <v>27.58792955498873</v>
       </c>
       <c r="H11">
-        <v>10.06862810098642</v>
+        <v>12.90749426047885</v>
       </c>
       <c r="I11">
-        <v>13.22851919080676</v>
+        <v>17.74761052665655</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.15663312820255</v>
+        <v>15.76728264823201</v>
       </c>
       <c r="N11">
-        <v>9.664433882337068</v>
+        <v>16.11787565904532</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.82077219235649</v>
+        <v>14.46180941325502</v>
       </c>
       <c r="C12">
-        <v>20.10235008060975</v>
+        <v>11.45720412852704</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.02032069251337</v>
+        <v>12.26463902908495</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>38.13866041778451</v>
+        <v>27.71165310671114</v>
       </c>
       <c r="H12">
-        <v>10.14005023646342</v>
+        <v>12.90654210756537</v>
       </c>
       <c r="I12">
-        <v>13.30021399531565</v>
+        <v>17.73621376202193</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.46200460247404</v>
+        <v>15.85545835720438</v>
       </c>
       <c r="N12">
-        <v>9.594576837647564</v>
+        <v>16.10069821199387</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.75022898789299</v>
+        <v>14.42946722396115</v>
       </c>
       <c r="C13">
-        <v>20.04720348469566</v>
+        <v>11.42985605482051</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.9735996530091</v>
+        <v>12.25590864155965</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>38.02430249672151</v>
+        <v>27.68496313518158</v>
       </c>
       <c r="H13">
-        <v>10.12458312989844</v>
+        <v>12.90672235781333</v>
       </c>
       <c r="I13">
-        <v>13.28457837131466</v>
+        <v>17.7386284184533</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.39645918526686</v>
+        <v>15.83648625431124</v>
       </c>
       <c r="N13">
-        <v>9.609615248325161</v>
+        <v>16.1043852196585</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.51913177389783</v>
+        <v>14.32351148742788</v>
       </c>
       <c r="C14">
-        <v>19.8666210004723</v>
+        <v>11.34017875777904</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.82079387404792</v>
+        <v>12.22749825448128</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>37.65100372554658</v>
+        <v>27.59808838259336</v>
       </c>
       <c r="H14">
-        <v>10.07446579965441</v>
+        <v>12.90740474810743</v>
       </c>
       <c r="I14">
-        <v>13.23433007027787</v>
+        <v>17.74665496658379</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.18185643126263</v>
+        <v>15.77454495387071</v>
       </c>
       <c r="N14">
-        <v>9.658683669871515</v>
+        <v>16.11645684205958</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.37677584592353</v>
+        <v>14.25824226632078</v>
       </c>
       <c r="C15">
-        <v>19.75543980419436</v>
+        <v>11.28487288028479</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>14.72685601097483</v>
+        <v>12.21014382835036</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>37.42207300700582</v>
+        <v>27.54500601051613</v>
       </c>
       <c r="H15">
-        <v>10.04401551767989</v>
+        <v>12.90789535164634</v>
       </c>
       <c r="I15">
-        <v>13.2041184332884</v>
+        <v>17.75168798116478</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.0497535329651</v>
+        <v>15.73655255020567</v>
       </c>
       <c r="N15">
-        <v>9.688759598035775</v>
+        <v>16.12388757623073</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.54858801357767</v>
+        <v>13.87861842527938</v>
       </c>
       <c r="C16">
-        <v>19.1094791066943</v>
+        <v>10.96217695221297</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>14.18320256830751</v>
+        <v>12.11145130618689</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>36.10583693508001</v>
+        <v>27.24292495525691</v>
       </c>
       <c r="H16">
-        <v>9.873272695590865</v>
+        <v>12.91181821877728</v>
       </c>
       <c r="I16">
-        <v>13.03951239570902</v>
+        <v>17.78231003882133</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.28259248540941</v>
+        <v>15.51810874379393</v>
       </c>
       <c r="N16">
-        <v>9.86146015132735</v>
+        <v>16.1670308685499</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.02934022252279</v>
+        <v>13.64080227681377</v>
       </c>
       <c r="C17">
-        <v>18.70522109366835</v>
+        <v>10.75907639443625</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.84480146677971</v>
+        <v>12.0516124993018</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>35.30027030679068</v>
+        <v>27.05960827501367</v>
       </c>
       <c r="H17">
-        <v>9.771829447925654</v>
+        <v>12.91521460255177</v>
       </c>
       <c r="I17">
-        <v>12.94595676404529</v>
+        <v>17.8026772023528</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.80278472192728</v>
+        <v>15.38352680775872</v>
       </c>
       <c r="N17">
-        <v>9.967758377321042</v>
+        <v>16.19399940753076</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.72653003656134</v>
+        <v>13.50223117666511</v>
       </c>
       <c r="C18">
-        <v>18.46972882980675</v>
+        <v>10.64037205532478</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.65540320186217</v>
+        <v>12.01746557029138</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>34.85334023134452</v>
+        <v>26.95495009209957</v>
       </c>
       <c r="H18">
-        <v>9.714676291096824</v>
+        <v>12.91753106949776</v>
       </c>
       <c r="I18">
-        <v>12.89480113180602</v>
+        <v>17.81497036666808</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.52338613416353</v>
+        <v>15.30593751140416</v>
       </c>
       <c r="N18">
-        <v>10.02904387759907</v>
+        <v>16.20969576544928</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.62328651212956</v>
+        <v>13.45500934930159</v>
       </c>
       <c r="C19">
-        <v>18.38948078115688</v>
+        <v>10.59985702749344</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.59921291039657</v>
+        <v>12.0059515816088</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>34.70190066062835</v>
+        <v>26.91965303887292</v>
       </c>
       <c r="H19">
-        <v>9.695528543294278</v>
+        <v>12.91837764311746</v>
       </c>
       <c r="I19">
-        <v>12.87792961643241</v>
+        <v>17.81923172190996</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.42819338933512</v>
+        <v>15.27963882127883</v>
       </c>
       <c r="N19">
-        <v>10.04982059715306</v>
+        <v>16.21504206026318</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.08504385727782</v>
+        <v>13.66630362339897</v>
       </c>
       <c r="C20">
-        <v>18.74856193834032</v>
+        <v>10.78089205997381</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.88101467591393</v>
+        <v>12.05795467367352</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>35.38293144916285</v>
+        <v>27.07904287422276</v>
       </c>
       <c r="H20">
-        <v>9.782504219990669</v>
+        <v>12.9148154681148</v>
       </c>
       <c r="I20">
-        <v>12.95563944715014</v>
+        <v>17.80044914797328</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>21.85421448975787</v>
+        <v>15.39787272652501</v>
       </c>
       <c r="N20">
-        <v>9.956428042402193</v>
+        <v>16.19110944810117</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.58717754423949</v>
+        <v>14.35471012351132</v>
       </c>
       <c r="C21">
-        <v>19.91978082669768</v>
+        <v>11.36659750344184</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.86574716797352</v>
+        <v>12.23583318558064</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>37.76070749035267</v>
+        <v>27.62357857240974</v>
       </c>
       <c r="H21">
-        <v>10.0891346728232</v>
+        <v>12.90718917584347</v>
       </c>
       <c r="I21">
-        <v>13.2489706836405</v>
+        <v>17.74427307728919</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.2450261235861</v>
+        <v>15.79274951744906</v>
       </c>
       <c r="N21">
-        <v>9.644266991382827</v>
+        <v>16.11290350636678</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.5328845386346</v>
+        <v>14.78820700252813</v>
       </c>
       <c r="C22">
-        <v>20.65965239788353</v>
+        <v>11.73256700854454</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.49397956766023</v>
+        <v>12.35425530504757</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>39.30364577867208</v>
+        <v>27.98544697802263</v>
       </c>
       <c r="H22">
-        <v>10.30058516207511</v>
+        <v>12.90545315879856</v>
       </c>
       <c r="I22">
-        <v>13.46585767235805</v>
+        <v>17.71276682960477</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>24.12465270249247</v>
+        <v>16.04859469969713</v>
       </c>
       <c r="N22">
-        <v>9.441195667596928</v>
+        <v>16.06342704191465</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.0313903502778</v>
+        <v>14.55836596116395</v>
       </c>
       <c r="C23">
-        <v>20.26706404952121</v>
+        <v>11.53878213169195</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.16002797430873</v>
+        <v>12.29086465954454</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>38.48122281673687</v>
+        <v>27.79181042020741</v>
       </c>
       <c r="H23">
-        <v>10.18669812814502</v>
+        <v>12.90608179033006</v>
       </c>
       <c r="I23">
-        <v>13.34772499762432</v>
+        <v>17.72910309581263</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.65780525264995</v>
+        <v>15.91227807501343</v>
       </c>
       <c r="N23">
-        <v>9.549510017759042</v>
+        <v>16.08968436687815</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.05987360951556</v>
+        <v>13.65478021283913</v>
       </c>
       <c r="C24">
-        <v>18.72897714220351</v>
+        <v>10.77103523732007</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.86464871442977</v>
+        <v>12.0550865790485</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>35.34556309926831</v>
+        <v>27.07025419772975</v>
       </c>
       <c r="H24">
-        <v>9.777674522235108</v>
+        <v>12.91499478356262</v>
       </c>
       <c r="I24">
-        <v>12.95125372924975</v>
+        <v>17.80145463335266</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.83097416375851</v>
+        <v>15.39138760353448</v>
       </c>
       <c r="N24">
-        <v>9.961549943418364</v>
+        <v>16.19241540119024</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.77405513171653</v>
+        <v>12.6123103525052</v>
       </c>
       <c r="C25">
-        <v>16.95580919965722</v>
+        <v>9.87082949385424</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.61797221488289</v>
+        <v>11.81124908723674</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>32.0732738254128</v>
+        <v>26.32234962358157</v>
       </c>
       <c r="H25">
-        <v>9.381901633974712</v>
+        <v>12.93847193250701</v>
       </c>
       <c r="I25">
-        <v>12.62406970214595</v>
+        <v>17.90157863819771</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>19.72893063794773</v>
+        <v>14.82300056306705</v>
       </c>
       <c r="N25">
-        <v>10.41174689790718</v>
+        <v>16.31029770361473</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_198/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_198/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.79008979645891</v>
+        <v>19.94930642248365</v>
       </c>
       <c r="C2">
-        <v>9.146297098557223</v>
+        <v>15.54784911771552</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.64193756024586</v>
+        <v>11.69959207243232</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>25.80280529302172</v>
+        <v>29.64530342730944</v>
       </c>
       <c r="H2">
-        <v>12.96756632760109</v>
+        <v>9.1272444812972</v>
       </c>
       <c r="I2">
-        <v>17.99397222990934</v>
+        <v>12.46041228139279</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.40239269569655</v>
+        <v>18.06250384896135</v>
       </c>
       <c r="N2">
-        <v>16.40324474656374</v>
+        <v>10.74996063875651</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.20128780790012</v>
+        <v>18.62216409728583</v>
       </c>
       <c r="C3">
-        <v>8.617083079331648</v>
+        <v>14.52802848155542</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.53414368500319</v>
+        <v>11.06594752405191</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>25.47253618121673</v>
+        <v>27.99313175096839</v>
       </c>
       <c r="H3">
-        <v>12.99458165896553</v>
+        <v>8.976321825278802</v>
       </c>
       <c r="I3">
-        <v>18.06806836529239</v>
+        <v>12.39266532792098</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.1179314706999</v>
+        <v>16.85671297578499</v>
       </c>
       <c r="N3">
-        <v>16.47010806177864</v>
+        <v>10.98419496827727</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.82527740164572</v>
+        <v>17.76205240595926</v>
       </c>
       <c r="C4">
-        <v>8.273478209271925</v>
+        <v>13.86900871448744</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.47156272440864</v>
+        <v>10.67215782193905</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>25.28127003946212</v>
+        <v>26.9780219134555</v>
       </c>
       <c r="H4">
-        <v>13.01474348701838</v>
+        <v>8.893867702485855</v>
       </c>
       <c r="I4">
-        <v>18.11916865240467</v>
+        <v>12.370588106137</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.94422934883281</v>
+        <v>16.0779769708927</v>
       </c>
       <c r="N4">
-        <v>16.51308396530331</v>
+        <v>11.13074518448282</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.66860470937609</v>
+        <v>17.40009571379153</v>
       </c>
       <c r="C5">
-        <v>8.128799319758761</v>
+        <v>13.59213800826417</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.44699204141228</v>
+        <v>10.51066178404025</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>25.20633087119935</v>
+        <v>26.56469818761525</v>
       </c>
       <c r="H5">
-        <v>13.02385443183121</v>
+        <v>8.862758772169201</v>
       </c>
       <c r="I5">
-        <v>18.14139313045144</v>
+        <v>12.36622840688332</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.87378864532545</v>
+        <v>15.75090123413523</v>
       </c>
       <c r="N5">
-        <v>16.53108177267938</v>
+        <v>11.19118669261108</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.64238761962339</v>
+        <v>17.33929918399569</v>
       </c>
       <c r="C6">
-        <v>8.104495491987191</v>
+        <v>13.54566027618485</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.44296905199232</v>
+        <v>10.48378925784827</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>25.1940716026063</v>
+        <v>26.49610353781459</v>
       </c>
       <c r="H6">
-        <v>13.02542122196905</v>
+        <v>8.857741279677962</v>
       </c>
       <c r="I6">
-        <v>18.14516782856428</v>
+        <v>12.36577649709721</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.86211585819523</v>
+        <v>15.69600039516577</v>
       </c>
       <c r="N6">
-        <v>16.53409962101097</v>
+        <v>11.20126749715035</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.8231781256704</v>
+        <v>17.75721740545946</v>
       </c>
       <c r="C7">
-        <v>8.271545819972971</v>
+        <v>13.86530846977671</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.47122755222083</v>
+        <v>10.669983727165</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>25.28024708951274</v>
+        <v>26.97244555562285</v>
       </c>
       <c r="H7">
-        <v>13.014862742738</v>
+        <v>8.893438173673468</v>
       </c>
       <c r="I7">
-        <v>18.11946271983773</v>
+        <v>12.37051089778413</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.94327782935429</v>
+        <v>16.07360543048941</v>
       </c>
       <c r="N7">
-        <v>16.51332472510162</v>
+        <v>11.13155735527731</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.59018521961684</v>
+        <v>19.50104750262852</v>
       </c>
       <c r="C8">
-        <v>8.967716882844689</v>
+        <v>15.2029946972435</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.60403774370236</v>
+        <v>11.48218048843108</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>25.68660404705504</v>
+        <v>29.07604874735278</v>
       </c>
       <c r="H8">
-        <v>12.97613707579701</v>
+        <v>9.073042941864339</v>
       </c>
       <c r="I8">
-        <v>18.01835207780978</v>
+        <v>12.4328406567782</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.30417319109519</v>
+        <v>17.65465697710727</v>
       </c>
       <c r="N8">
-        <v>16.42590135536888</v>
+        <v>10.83017964843462</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.97224001865727</v>
+        <v>22.56575034635223</v>
       </c>
       <c r="C9">
-        <v>10.18367893268525</v>
+        <v>17.56874669778788</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.891876952679</v>
+        <v>13.03211392629548</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>26.56977634533969</v>
+        <v>33.17884976305442</v>
       </c>
       <c r="H9">
-        <v>12.92872101361982</v>
+        <v>9.509351884688769</v>
       </c>
       <c r="I9">
-        <v>17.86492929360339</v>
+        <v>12.72164361459958</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>15.01503397610182</v>
+        <v>20.45509912678315</v>
       </c>
       <c r="N9">
-        <v>16.26963806331387</v>
+        <v>10.25916573958114</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.90551102086756</v>
+        <v>24.60727821352412</v>
       </c>
       <c r="C10">
-        <v>10.98509641590152</v>
+        <v>19.15520767770484</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.1183151996688</v>
+        <v>14.22156999371193</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>27.26394515072758</v>
+        <v>36.19822733709994</v>
       </c>
       <c r="H10">
-        <v>12.91147990922998</v>
+        <v>9.885011287623986</v>
       </c>
       <c r="I10">
-        <v>17.78006459007004</v>
+        <v>13.05055288850153</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>15.53343875166049</v>
+        <v>22.33688141443513</v>
       </c>
       <c r="N10">
-        <v>16.16397857394625</v>
+        <v>9.849349348257752</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.31105181644751</v>
+        <v>25.49195663653848</v>
       </c>
       <c r="C11">
-        <v>11.32962487861414</v>
+        <v>19.84539360106546</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.22417670218902</v>
+        <v>14.80285034609441</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>27.58792955498873</v>
+        <v>37.6072415551956</v>
       </c>
       <c r="H11">
-        <v>12.90749426047885</v>
+        <v>10.06862810098641</v>
       </c>
       <c r="I11">
-        <v>17.74761052665655</v>
+        <v>13.22851919080678</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>15.76728264823201</v>
+        <v>23.15663312820253</v>
       </c>
       <c r="N11">
-        <v>16.11787565904532</v>
+        <v>9.664433882337068</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.46180941325502</v>
+        <v>25.8207721923565</v>
       </c>
       <c r="C12">
-        <v>11.45720412852704</v>
+        <v>20.10235008060965</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.26463902908495</v>
+        <v>15.02032069251336</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>27.71165310671114</v>
+        <v>38.13866041778454</v>
       </c>
       <c r="H12">
-        <v>12.90654210756537</v>
+        <v>10.14005023646346</v>
       </c>
       <c r="I12">
-        <v>17.73621376202193</v>
+        <v>13.30021399531569</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>15.85545835720438</v>
+        <v>23.46200460247404</v>
       </c>
       <c r="N12">
-        <v>16.10069821199387</v>
+        <v>9.594576837647594</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.42946722396115</v>
+        <v>25.750228987893</v>
       </c>
       <c r="C13">
-        <v>11.42985605482051</v>
+        <v>20.04720348469567</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.25590864155965</v>
+        <v>14.97359965300908</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>27.68496313518158</v>
+        <v>38.02430249672159</v>
       </c>
       <c r="H13">
-        <v>12.90672235781333</v>
+        <v>10.12458312989844</v>
       </c>
       <c r="I13">
-        <v>17.7386284184533</v>
+        <v>13.28457837131469</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>15.83648625431124</v>
+        <v>23.39645918526682</v>
       </c>
       <c r="N13">
-        <v>16.1043852196585</v>
+        <v>9.609615248325088</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.32351148742788</v>
+        <v>25.51913177389791</v>
       </c>
       <c r="C14">
-        <v>11.34017875777904</v>
+        <v>19.86662100047215</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.22749825448128</v>
+        <v>14.82079387404794</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>27.59808838259336</v>
+        <v>37.65100372554661</v>
       </c>
       <c r="H14">
-        <v>12.90740474810743</v>
+        <v>10.07446579965441</v>
       </c>
       <c r="I14">
-        <v>17.74665496658379</v>
+        <v>13.23433007027784</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>15.77454495387071</v>
+        <v>23.18185643126263</v>
       </c>
       <c r="N14">
-        <v>16.11645684205958</v>
+        <v>9.658683669871483</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.25824226632078</v>
+        <v>25.37677584592349</v>
       </c>
       <c r="C15">
-        <v>11.28487288028479</v>
+        <v>19.7554398041943</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.21014382835036</v>
+        <v>14.72685601097484</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>27.54500601051613</v>
+        <v>37.42207300700577</v>
       </c>
       <c r="H15">
-        <v>12.90789535164634</v>
+        <v>10.04401551767987</v>
       </c>
       <c r="I15">
-        <v>17.75168798116478</v>
+        <v>13.20411843328841</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>15.73655255020567</v>
+        <v>23.04975353296507</v>
       </c>
       <c r="N15">
-        <v>16.12388757623073</v>
+        <v>9.688759598035773</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.87861842527938</v>
+        <v>24.54858801357774</v>
       </c>
       <c r="C16">
-        <v>10.96217695221297</v>
+        <v>19.10947910669425</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.11145130618689</v>
+        <v>14.18320256830754</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>27.24292495525691</v>
+        <v>36.10583693508007</v>
       </c>
       <c r="H16">
-        <v>12.91181821877728</v>
+        <v>9.87327269559087</v>
       </c>
       <c r="I16">
-        <v>17.78231003882133</v>
+        <v>13.03951239570902</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>15.51810874379393</v>
+        <v>22.28259248540944</v>
       </c>
       <c r="N16">
-        <v>16.1670308685499</v>
+        <v>9.861460151327348</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.64080227681377</v>
+        <v>24.0293402225228</v>
       </c>
       <c r="C17">
-        <v>10.75907639443625</v>
+        <v>18.7052210936684</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.0516124993018</v>
+        <v>13.84480146677973</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>27.05960827501367</v>
+        <v>35.30027030679073</v>
       </c>
       <c r="H17">
-        <v>12.91521460255177</v>
+        <v>9.771829447925667</v>
       </c>
       <c r="I17">
-        <v>17.8026772023528</v>
+        <v>12.94595676404532</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.38352680775872</v>
+        <v>21.80278472192729</v>
       </c>
       <c r="N17">
-        <v>16.19399940753076</v>
+        <v>9.967758377321042</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.50223117666511</v>
+        <v>23.72653003656132</v>
       </c>
       <c r="C18">
-        <v>10.64037205532478</v>
+        <v>18.4697288298067</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.01746557029138</v>
+        <v>13.65540320186215</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>26.95495009209957</v>
+        <v>34.85334023134452</v>
       </c>
       <c r="H18">
-        <v>12.91753106949776</v>
+        <v>9.714676291096833</v>
       </c>
       <c r="I18">
-        <v>17.81497036666808</v>
+        <v>12.89480113180608</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.30593751140416</v>
+        <v>21.52338613416353</v>
       </c>
       <c r="N18">
-        <v>16.20969576544928</v>
+        <v>10.0290438775991</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.45500934930159</v>
+        <v>23.62328651212962</v>
       </c>
       <c r="C19">
-        <v>10.59985702749344</v>
+        <v>18.38948078115694</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.0059515816088</v>
+        <v>13.59921291039658</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>26.91965303887292</v>
+        <v>34.70190066062833</v>
       </c>
       <c r="H19">
-        <v>12.91837764311746</v>
+        <v>9.695528543294232</v>
       </c>
       <c r="I19">
-        <v>17.81923172190996</v>
+        <v>12.87792961643232</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.27963882127883</v>
+        <v>21.42819338933516</v>
       </c>
       <c r="N19">
-        <v>16.21504206026318</v>
+        <v>10.049820597153</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.66630362339897</v>
+        <v>24.0850438572779</v>
       </c>
       <c r="C20">
-        <v>10.78089205997381</v>
+        <v>18.74856193834035</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.05795467367352</v>
+        <v>13.8810146759139</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>27.07904287422276</v>
+        <v>35.38293144916299</v>
       </c>
       <c r="H20">
-        <v>12.9148154681148</v>
+        <v>9.782504219990605</v>
       </c>
       <c r="I20">
-        <v>17.80044914797328</v>
+        <v>12.95563944715001</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.39787272652501</v>
+        <v>21.85421448975791</v>
       </c>
       <c r="N20">
-        <v>16.19110944810117</v>
+        <v>9.956428042402022</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.35471012351132</v>
+        <v>25.58717754423962</v>
       </c>
       <c r="C21">
-        <v>11.36659750344184</v>
+        <v>19.91978082669772</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.23583318558064</v>
+        <v>14.86574716797353</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>27.62357857240974</v>
+        <v>37.76070749035284</v>
       </c>
       <c r="H21">
-        <v>12.90718917584347</v>
+        <v>10.0891346728232</v>
       </c>
       <c r="I21">
-        <v>17.74427307728919</v>
+        <v>13.24897068364048</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>15.79274951744906</v>
+        <v>23.24502612358616</v>
       </c>
       <c r="N21">
-        <v>16.11290350636678</v>
+        <v>9.644266991382754</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.78820700252813</v>
+        <v>26.5328845386345</v>
       </c>
       <c r="C22">
-        <v>11.73256700854454</v>
+        <v>20.65965239788357</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.35425530504757</v>
+        <v>15.49397956766019</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>27.98544697802263</v>
+        <v>39.30364577867205</v>
       </c>
       <c r="H22">
-        <v>12.90545315879856</v>
+        <v>10.30058516207513</v>
       </c>
       <c r="I22">
-        <v>17.71276682960477</v>
+        <v>13.46585767235812</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>16.04859469969713</v>
+        <v>24.12465270249242</v>
       </c>
       <c r="N22">
-        <v>16.06342704191465</v>
+        <v>9.441195667596956</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.55836596116395</v>
+        <v>26.03139035027785</v>
       </c>
       <c r="C23">
-        <v>11.53878213169195</v>
+        <v>20.26706404952125</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.29086465954454</v>
+        <v>15.16002797430867</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>27.79181042020741</v>
+        <v>38.4812228167369</v>
       </c>
       <c r="H23">
-        <v>12.90608179033006</v>
+        <v>10.18669812814501</v>
       </c>
       <c r="I23">
-        <v>17.72910309581263</v>
+        <v>13.34772499762432</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>15.91227807501343</v>
+        <v>23.65780525264994</v>
       </c>
       <c r="N23">
-        <v>16.08968436687815</v>
+        <v>9.549510017759074</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.65478021283913</v>
+        <v>24.05987360951544</v>
       </c>
       <c r="C24">
-        <v>10.77103523732007</v>
+        <v>18.72897714220356</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.0550865790485</v>
+        <v>13.86464871442974</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>27.07025419772975</v>
+        <v>35.34556309926832</v>
       </c>
       <c r="H24">
-        <v>12.91499478356262</v>
+        <v>9.777674522235182</v>
       </c>
       <c r="I24">
-        <v>17.80145463335266</v>
+        <v>12.95125372924993</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.39138760353448</v>
+        <v>21.83097416375843</v>
       </c>
       <c r="N24">
-        <v>16.19241540119024</v>
+        <v>9.96154994341846</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.6123103525052</v>
+        <v>21.77405513171662</v>
       </c>
       <c r="C25">
-        <v>9.87082949385424</v>
+        <v>16.95580919965724</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.81124908723674</v>
+        <v>12.61797221488292</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>26.32234962358157</v>
+        <v>32.07327382541285</v>
       </c>
       <c r="H25">
-        <v>12.93847193250701</v>
+        <v>9.381901633974637</v>
       </c>
       <c r="I25">
-        <v>17.90157863819771</v>
+        <v>12.62406970214589</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>14.82300056306705</v>
+        <v>19.72893063794777</v>
       </c>
       <c r="N25">
-        <v>16.31029770361473</v>
+        <v>10.41174689790711</v>
       </c>
       <c r="O25">
         <v>0</v>
